--- a/src/main/Test.xlsx
+++ b/src/main/Test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Test</t>
   </si>
@@ -19,12 +19,18 @@
     <t>A</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>Build</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>Env</t>
   </si>
   <si>
@@ -32,6 +38,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>from main</t>
   </si>
 </sst>
 </file>
@@ -301,29 +310,46 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>45275.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45275.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/Test.xlsx
+++ b/src/main/Test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Test</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>from main</t>
+  </si>
+  <si>
+    <t>from branch1</t>
   </si>
 </sst>
 </file>
@@ -313,6 +316,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -324,6 +330,9 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -335,6 +344,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -346,10 +358,16 @@
       <c r="C4" s="2">
         <v>45275.0</v>
       </c>
+      <c r="D4" s="2">
+        <v>45275.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
